--- a/com.vhs.keyworddriven/DataEngineMobile.xlsx
+++ b/com.vhs.keyworddriven/DataEngineMobile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,12 @@
     <definedName name="U_Element_ID">#REF!</definedName>
     <definedName name="UI_ELEMENT_ID">'UI Elements'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2950,7 +2955,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3034,25 +3038,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3060,53 +3064,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3543,15 +3547,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="66.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3587,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -3598,7 +3602,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>466</v>
       </c>
@@ -3613,7 +3617,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>468</v>
       </c>
@@ -3628,7 +3632,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>470</v>
       </c>
@@ -3643,7 +3647,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>472</v>
       </c>
@@ -3658,7 +3662,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>474</v>
       </c>
@@ -3673,7 +3677,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>810</v>
       </c>
@@ -3688,7 +3692,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>935</v>
       </c>
@@ -3705,7 +3709,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3717,15 +3725,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="91.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="95.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="91.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="95.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3758,7 +3766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -3813,7 +3821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -3846,7 +3854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -3912,7 +3920,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -3923,7 +3931,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -3945,7 +3953,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
         <v>97</v>
       </c>
@@ -3967,7 +3975,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
         <v>176</v>
       </c>
@@ -3989,7 +3997,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
         <v>227</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
         <v>230</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
         <v>233</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>236</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="26" customFormat="1">
       <c r="A29" s="25" t="s">
         <v>238</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
         <v>240</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>242</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>244</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
         <v>246</v>
       </c>
@@ -4088,7 +4096,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
         <v>248</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
         <v>250</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
         <v>251</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
         <v>252</v>
       </c>
@@ -4132,7 +4140,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>253</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
         <v>254</v>
       </c>
@@ -4154,7 +4162,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
         <v>255</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
         <v>256</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
         <v>258</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
         <v>259</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
         <v>261</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
         <v>262</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="7" t="s">
         <v>265</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="7" t="s">
         <v>266</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="7" t="s">
         <v>268</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
         <v>270</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="7" t="s">
         <v>271</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
         <v>273</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="7" t="s">
         <v>274</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="7" t="s">
         <v>275</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="7" t="s">
         <v>276</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="7" t="s">
         <v>277</v>
       </c>
@@ -4341,7 +4349,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="7" t="s">
         <v>279</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="7" t="s">
         <v>281</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="7" t="s">
         <v>284</v>
       </c>
@@ -4385,7 +4393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="7" t="s">
         <v>287</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
         <v>290</v>
       </c>
@@ -4407,7 +4415,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="7" t="s">
         <v>293</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="7" t="s">
         <v>296</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
         <v>299</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="7" t="s">
         <v>302</v>
       </c>
@@ -4451,7 +4459,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
         <v>304</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="7" t="s">
         <v>307</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="7" t="s">
         <v>310</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="7" t="s">
         <v>312</v>
       </c>
@@ -4495,7 +4503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="7" t="s">
         <v>315</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="7" t="s">
         <v>318</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
         <v>320</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="7" t="s">
         <v>322</v>
       </c>
@@ -4539,7 +4547,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="7" t="s">
         <v>325</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="7" t="s">
         <v>327</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="7" t="s">
         <v>329</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="7" t="s">
         <v>331</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
         <v>334</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="7" t="s">
         <v>337</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="7" t="s">
         <v>340</v>
       </c>
@@ -4616,7 +4624,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="7" t="s">
         <v>343</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="7" t="s">
         <v>346</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="7" t="s">
         <v>349</v>
       </c>
@@ -4649,7 +4657,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
         <v>352</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="7" t="s">
         <v>355</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="7" t="s">
         <v>358</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="7" t="s">
         <v>360</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>362</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>365</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>368</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>370</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>372</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>375</v>
       </c>
@@ -4759,7 +4767,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>378</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>380</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>382</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>384</v>
       </c>
@@ -4803,7 +4811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>386</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>389</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>391</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>393</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>396</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>399</v>
       </c>
@@ -4869,7 +4877,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>402</v>
       </c>
@@ -4880,7 +4888,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>405</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>408</v>
       </c>
@@ -4902,7 +4910,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
         <v>411</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>414</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>417</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>420</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>423</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>426</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
         <v>428</v>
       </c>
@@ -4979,7 +4987,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
         <v>431</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
         <v>434</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
         <v>435</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
         <v>181</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
         <v>439</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
         <v>442</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
         <v>443</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
         <v>120</v>
       </c>
@@ -5067,7 +5075,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
         <v>126</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
         <v>166</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>169</v>
       </c>
@@ -5100,7 +5108,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
         <v>590</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
         <v>593</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
         <v>676</v>
       </c>
@@ -5133,7 +5141,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
         <v>795</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
         <v>798</v>
       </c>
@@ -5155,7 +5163,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
         <v>838</v>
       </c>
@@ -5166,7 +5174,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="7" t="s">
         <v>841</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
         <v>844</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="28">
       <c r="A134" s="7" t="s">
         <v>847</v>
       </c>
@@ -5199,7 +5207,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
         <v>850</v>
       </c>
@@ -5210,7 +5218,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
         <v>854</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
         <v>857</v>
       </c>
@@ -5232,7 +5240,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
         <v>861</v>
       </c>
@@ -5243,7 +5251,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
         <v>894</v>
       </c>
@@ -5254,7 +5262,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
         <v>895</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
         <v>896</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
         <v>897</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="7" t="s">
         <v>898</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>899</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
         <v>900</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="7" t="s">
         <v>901</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="7" t="s">
         <v>902</v>
       </c>
@@ -5344,6 +5352,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5351,23 +5364,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H46"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="70.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="38.140625" collapsed="true"/>
-    <col min="8" max="8" style="45" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.1640625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.1640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.83203125" style="45" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="37" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -5393,7 +5406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="35" t="s">
         <v>15</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
@@ -5439,7 +5452,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5500,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
@@ -5509,7 +5522,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -5555,7 +5568,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
@@ -5579,7 +5592,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -5603,7 +5616,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -5627,7 +5640,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5662,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="49" customFormat="1">
       <c r="A13" s="46" t="s">
         <v>15</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>110</v>
       </c>
@@ -5692,7 +5705,7 @@
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
@@ -5714,7 +5727,7 @@
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>110</v>
       </c>
@@ -5736,7 +5749,7 @@
       </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>110</v>
       </c>
@@ -5760,7 +5773,7 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>110</v>
       </c>
@@ -5782,7 +5795,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>110</v>
       </c>
@@ -5806,7 +5819,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>110</v>
       </c>
@@ -5828,7 +5841,7 @@
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>110</v>
       </c>
@@ -5852,7 +5865,7 @@
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="12" t="s">
         <v>110</v>
       </c>
@@ -5876,7 +5889,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
         <v>110</v>
       </c>
@@ -5900,7 +5913,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -5922,7 +5935,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="12" t="s">
         <v>110</v>
       </c>
@@ -5944,7 +5957,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="12" t="s">
         <v>110</v>
       </c>
@@ -5966,7 +5979,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="12" t="s">
         <v>110</v>
       </c>
@@ -5988,7 +6001,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>110</v>
       </c>
@@ -6010,7 +6023,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="12" t="s">
         <v>110</v>
       </c>
@@ -6034,7 +6047,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="12" t="s">
         <v>110</v>
       </c>
@@ -6056,7 +6069,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="12" t="s">
         <v>110</v>
       </c>
@@ -6080,7 +6093,7 @@
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="12" t="s">
         <v>110</v>
       </c>
@@ -6102,7 +6115,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="12" t="s">
         <v>110</v>
       </c>
@@ -6124,7 +6137,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="12" t="s">
         <v>110</v>
       </c>
@@ -6146,7 +6159,7 @@
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
         <v>110</v>
       </c>
@@ -6168,7 +6181,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="12" t="s">
         <v>110</v>
       </c>
@@ -6190,7 +6203,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
@@ -6214,7 +6227,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="12" t="s">
         <v>110</v>
       </c>
@@ -6236,7 +6249,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
         <v>110</v>
       </c>
@@ -6260,7 +6273,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
@@ -6282,7 +6295,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
         <v>110</v>
       </c>
@@ -6304,7 +6317,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
         <v>110</v>
       </c>
@@ -6326,7 +6339,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="12" t="s">
         <v>110</v>
       </c>
@@ -6348,7 +6361,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
         <v>110</v>
       </c>
@@ -6372,7 +6385,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
         <v>110</v>
       </c>
@@ -6394,7 +6407,7 @@
       </c>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
         <v>110</v>
       </c>
@@ -6414,7 +6427,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="12" t="s">
         <v>466</v>
       </c>
@@ -6436,7 +6449,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="12" t="s">
         <v>466</v>
       </c>
@@ -6458,7 +6471,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="12" t="s">
         <v>466</v>
       </c>
@@ -6480,7 +6493,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="12" t="s">
         <v>466</v>
       </c>
@@ -6502,7 +6515,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="12" t="s">
         <v>466</v>
       </c>
@@ -6526,7 +6539,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="12" t="s">
         <v>466</v>
       </c>
@@ -6548,7 +6561,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="12" t="s">
         <v>466</v>
       </c>
@@ -6570,7 +6583,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="12" t="s">
         <v>466</v>
       </c>
@@ -6594,7 +6607,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="12" t="s">
         <v>466</v>
       </c>
@@ -6616,7 +6629,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="12" t="s">
         <v>466</v>
       </c>
@@ -6640,7 +6653,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="12" t="s">
         <v>466</v>
       </c>
@@ -6662,7 +6675,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="12" t="s">
         <v>466</v>
       </c>
@@ -6684,7 +6697,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="12" t="s">
         <v>466</v>
       </c>
@@ -6706,7 +6719,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="12" t="s">
         <v>466</v>
       </c>
@@ -6728,7 +6741,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="12" t="s">
         <v>466</v>
       </c>
@@ -6750,7 +6763,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="12" t="s">
         <v>466</v>
       </c>
@@ -6772,7 +6785,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="12" t="s">
         <v>466</v>
       </c>
@@ -6796,7 +6809,7 @@
       </c>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="12" t="s">
         <v>466</v>
       </c>
@@ -6818,7 +6831,7 @@
       </c>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="12" t="s">
         <v>466</v>
       </c>
@@ -6840,7 +6853,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="12" t="s">
         <v>466</v>
       </c>
@@ -6864,7 +6877,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="12" t="s">
         <v>466</v>
       </c>
@@ -6886,7 +6899,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="12" t="s">
         <v>466</v>
       </c>
@@ -6908,7 +6921,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="12" t="s">
         <v>466</v>
       </c>
@@ -6932,7 +6945,7 @@
       </c>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="12" t="s">
         <v>466</v>
       </c>
@@ -6954,7 +6967,7 @@
       </c>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="12" t="s">
         <v>466</v>
       </c>
@@ -6976,7 +6989,7 @@
       </c>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="12" t="s">
         <v>466</v>
       </c>
@@ -7000,7 +7013,7 @@
       </c>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="12" t="s">
         <v>466</v>
       </c>
@@ -7022,7 +7035,7 @@
       </c>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="12" t="s">
         <v>466</v>
       </c>
@@ -7044,7 +7057,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="12" t="s">
         <v>466</v>
       </c>
@@ -7068,7 +7081,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="12" t="s">
         <v>466</v>
       </c>
@@ -7090,7 +7103,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="12" t="s">
         <v>466</v>
       </c>
@@ -7112,7 +7125,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="12" t="s">
         <v>466</v>
       </c>
@@ -7134,7 +7147,7 @@
       </c>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
         <v>466</v>
       </c>
@@ -7156,7 +7169,7 @@
       </c>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="12" t="s">
         <v>466</v>
       </c>
@@ -7178,7 +7191,7 @@
       </c>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="12" t="s">
         <v>466</v>
       </c>
@@ -7202,7 +7215,7 @@
       </c>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="12" t="s">
         <v>466</v>
       </c>
@@ -7224,7 +7237,7 @@
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="12" t="s">
         <v>466</v>
       </c>
@@ -7246,7 +7259,7 @@
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="12" t="s">
         <v>466</v>
       </c>
@@ -7268,7 +7281,7 @@
       </c>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="12" t="s">
         <v>466</v>
       </c>
@@ -7290,7 +7303,7 @@
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="12" t="s">
         <v>466</v>
       </c>
@@ -7314,7 +7327,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="12" t="s">
         <v>466</v>
       </c>
@@ -7336,7 +7349,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="12" t="s">
         <v>466</v>
       </c>
@@ -7360,7 +7373,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="12" t="s">
         <v>466</v>
       </c>
@@ -7382,7 +7395,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="12" t="s">
         <v>466</v>
       </c>
@@ -7404,7 +7417,7 @@
       </c>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="12" t="s">
         <v>466</v>
       </c>
@@ -7426,7 +7439,7 @@
       </c>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="12" t="s">
         <v>466</v>
       </c>
@@ -7448,7 +7461,7 @@
       </c>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="12" t="s">
         <v>466</v>
       </c>
@@ -7470,7 +7483,7 @@
       </c>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="12" t="s">
         <v>466</v>
       </c>
@@ -7492,7 +7505,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="12" t="s">
         <v>466</v>
       </c>
@@ -7516,7 +7529,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="12" t="s">
         <v>466</v>
       </c>
@@ -7538,7 +7551,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="12" t="s">
         <v>466</v>
       </c>
@@ -7560,7 +7573,7 @@
       </c>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="12" t="s">
         <v>466</v>
       </c>
@@ -7584,7 +7597,7 @@
       </c>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="12" t="s">
         <v>466</v>
       </c>
@@ -7606,7 +7619,7 @@
       </c>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="12" t="s">
         <v>466</v>
       </c>
@@ -7628,7 +7641,7 @@
       </c>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="12" t="s">
         <v>466</v>
       </c>
@@ -7652,7 +7665,7 @@
       </c>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="12" t="s">
         <v>466</v>
       </c>
@@ -7674,7 +7687,7 @@
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="12" t="s">
         <v>466</v>
       </c>
@@ -7696,7 +7709,7 @@
       </c>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="12" t="s">
         <v>466</v>
       </c>
@@ -7720,7 +7733,7 @@
       </c>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="12" t="s">
         <v>466</v>
       </c>
@@ -7742,7 +7755,7 @@
       </c>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="12" t="s">
         <v>466</v>
       </c>
@@ -7764,7 +7777,7 @@
       </c>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="12" t="s">
         <v>466</v>
       </c>
@@ -7788,7 +7801,7 @@
       </c>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="12" t="s">
         <v>466</v>
       </c>
@@ -7810,7 +7823,7 @@
       </c>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="12" t="s">
         <v>466</v>
       </c>
@@ -7832,7 +7845,7 @@
       </c>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="12" t="s">
         <v>466</v>
       </c>
@@ -7854,7 +7867,7 @@
       </c>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="12" t="s">
         <v>466</v>
       </c>
@@ -7876,7 +7889,7 @@
       </c>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="12" t="s">
         <v>466</v>
       </c>
@@ -7898,7 +7911,7 @@
       </c>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="12" t="s">
         <v>466</v>
       </c>
@@ -7922,7 +7935,7 @@
       </c>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="12" t="s">
         <v>466</v>
       </c>
@@ -7942,7 +7955,7 @@
       </c>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="12" t="s">
         <v>468</v>
       </c>
@@ -7964,7 +7977,7 @@
       </c>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="12" t="s">
         <v>468</v>
       </c>
@@ -7986,7 +7999,7 @@
       </c>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="12" t="s">
         <v>468</v>
       </c>
@@ -8008,7 +8021,7 @@
       </c>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="12" t="s">
         <v>468</v>
       </c>
@@ -8032,7 +8045,7 @@
       </c>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="12" t="s">
         <v>468</v>
       </c>
@@ -8054,7 +8067,7 @@
       </c>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="12" t="s">
         <v>468</v>
       </c>
@@ -8076,7 +8089,7 @@
       </c>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="12" t="s">
         <v>468</v>
       </c>
@@ -8098,7 +8111,7 @@
       </c>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="12" t="s">
         <v>468</v>
       </c>
@@ -8120,7 +8133,7 @@
       </c>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="12" t="s">
         <v>468</v>
       </c>
@@ -8142,7 +8155,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="12" t="s">
         <v>468</v>
       </c>
@@ -8164,7 +8177,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="12" t="s">
         <v>468</v>
       </c>
@@ -8186,7 +8199,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="12" t="s">
         <v>468</v>
       </c>
@@ -8210,7 +8223,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="12" t="s">
         <v>468</v>
       </c>
@@ -8230,7 +8243,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="12" t="s">
         <v>470</v>
       </c>
@@ -8252,7 +8265,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="12" t="s">
         <v>470</v>
       </c>
@@ -8274,7 +8287,7 @@
       </c>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="12" t="s">
         <v>470</v>
       </c>
@@ -8296,7 +8309,7 @@
       </c>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="12" t="s">
         <v>470</v>
       </c>
@@ -8320,7 +8333,7 @@
       </c>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="12" t="s">
         <v>470</v>
       </c>
@@ -8342,7 +8355,7 @@
       </c>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="12" t="s">
         <v>470</v>
       </c>
@@ -8364,7 +8377,7 @@
       </c>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="12" t="s">
         <v>470</v>
       </c>
@@ -8386,7 +8399,7 @@
       </c>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="12" t="s">
         <v>470</v>
       </c>
@@ -8408,7 +8421,7 @@
       </c>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="12" t="s">
         <v>470</v>
       </c>
@@ -8430,7 +8443,7 @@
       </c>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="12" t="s">
         <v>470</v>
       </c>
@@ -8454,7 +8467,7 @@
       </c>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="12" t="s">
         <v>470</v>
       </c>
@@ -8478,7 +8491,7 @@
       </c>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="12" t="s">
         <v>470</v>
       </c>
@@ -8502,7 +8515,7 @@
       </c>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="12" t="s">
         <v>470</v>
       </c>
@@ -8526,7 +8539,7 @@
       </c>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="12" t="s">
         <v>470</v>
       </c>
@@ -8550,7 +8563,7 @@
       </c>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="12" t="s">
         <v>470</v>
       </c>
@@ -8574,7 +8587,7 @@
       </c>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="12" t="s">
         <v>470</v>
       </c>
@@ -8596,7 +8609,7 @@
       </c>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="12" t="s">
         <v>470</v>
       </c>
@@ -8618,7 +8631,7 @@
       </c>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="12" t="s">
         <v>470</v>
       </c>
@@ -8642,7 +8655,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="12" t="s">
         <v>470</v>
       </c>
@@ -8664,7 +8677,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="12" t="s">
         <v>470</v>
       </c>
@@ -8686,7 +8699,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="12" t="s">
         <v>470</v>
       </c>
@@ -8708,7 +8721,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="12" t="s">
         <v>470</v>
       </c>
@@ -8728,7 +8741,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="12" t="s">
         <v>470</v>
       </c>
@@ -8750,7 +8763,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="12" t="s">
         <v>470</v>
       </c>
@@ -8772,7 +8785,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="12" t="s">
         <v>470</v>
       </c>
@@ -8794,7 +8807,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="12" t="s">
         <v>470</v>
       </c>
@@ -8818,7 +8831,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="12" t="s">
         <v>470</v>
       </c>
@@ -8840,7 +8853,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="12" t="s">
         <v>470</v>
       </c>
@@ -8862,7 +8875,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="12" t="s">
         <v>470</v>
       </c>
@@ -8884,7 +8897,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="12" t="s">
         <v>470</v>
       </c>
@@ -8908,7 +8921,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="12" t="s">
         <v>470</v>
       </c>
@@ -8930,7 +8943,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="12" t="s">
         <v>470</v>
       </c>
@@ -8952,7 +8965,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="12" t="s">
         <v>470</v>
       </c>
@@ -8974,7 +8987,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="12" t="s">
         <v>470</v>
       </c>
@@ -8996,7 +9009,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="12" t="s">
         <v>470</v>
       </c>
@@ -9018,7 +9031,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="12" t="s">
         <v>470</v>
       </c>
@@ -9038,7 +9051,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="12" t="s">
         <v>472</v>
       </c>
@@ -9060,7 +9073,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="12" t="s">
         <v>472</v>
       </c>
@@ -9082,7 +9095,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="12" t="s">
         <v>472</v>
       </c>
@@ -9104,7 +9117,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="12" t="s">
         <v>472</v>
       </c>
@@ -9128,7 +9141,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="12" t="s">
         <v>472</v>
       </c>
@@ -9150,7 +9163,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="12" t="s">
         <v>472</v>
       </c>
@@ -9174,7 +9187,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="12" t="s">
         <v>472</v>
       </c>
@@ -9196,7 +9209,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="12" t="s">
         <v>472</v>
       </c>
@@ -9218,7 +9231,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="12" t="s">
         <v>472</v>
       </c>
@@ -9240,7 +9253,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="12" t="s">
         <v>472</v>
       </c>
@@ -9264,7 +9277,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="12" t="s">
         <v>472</v>
       </c>
@@ -9286,7 +9299,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="12" t="s">
         <v>472</v>
       </c>
@@ -9308,7 +9321,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="12" t="s">
         <v>472</v>
       </c>
@@ -9330,7 +9343,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="12" t="s">
         <v>472</v>
       </c>
@@ -9350,7 +9363,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="12" t="s">
         <v>474</v>
       </c>
@@ -9372,7 +9385,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="12" t="s">
         <v>474</v>
       </c>
@@ -9394,7 +9407,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="12" t="s">
         <v>474</v>
       </c>
@@ -9416,7 +9429,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="12" t="s">
         <v>474</v>
       </c>
@@ -9438,7 +9451,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="12" t="s">
         <v>474</v>
       </c>
@@ -9460,7 +9473,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="12" t="s">
         <v>474</v>
       </c>
@@ -9484,7 +9497,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="12" t="s">
         <v>474</v>
       </c>
@@ -9506,7 +9519,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="12" t="s">
         <v>474</v>
       </c>
@@ -9530,7 +9543,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="12" t="s">
         <v>474</v>
       </c>
@@ -9554,7 +9567,7 @@
       </c>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="12" t="s">
         <v>474</v>
       </c>
@@ -9576,7 +9589,7 @@
       </c>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="12" t="s">
         <v>474</v>
       </c>
@@ -9598,7 +9611,7 @@
       </c>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="12" t="s">
         <v>474</v>
       </c>
@@ -9622,7 +9635,7 @@
       </c>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="12" t="s">
         <v>474</v>
       </c>
@@ -9642,7 +9655,7 @@
       </c>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="12" t="s">
         <v>474</v>
       </c>
@@ -9664,7 +9677,7 @@
       </c>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="12" t="s">
         <v>474</v>
       </c>
@@ -9686,7 +9699,7 @@
       </c>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="12" t="s">
         <v>474</v>
       </c>
@@ -9708,7 +9721,7 @@
       </c>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="12" t="s">
         <v>474</v>
       </c>
@@ -9730,7 +9743,7 @@
       </c>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="12" t="s">
         <v>474</v>
       </c>
@@ -9752,7 +9765,7 @@
       </c>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="12" t="s">
         <v>474</v>
       </c>
@@ -9774,7 +9787,7 @@
       </c>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="12" t="s">
         <v>474</v>
       </c>
@@ -9796,7 +9809,7 @@
       </c>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="12" t="s">
         <v>474</v>
       </c>
@@ -9818,7 +9831,7 @@
       </c>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="12" t="s">
         <v>474</v>
       </c>
@@ -9838,7 +9851,7 @@
       </c>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="28" t="s">
         <v>810</v>
       </c>
@@ -9860,7 +9873,7 @@
       </c>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="28" t="s">
         <v>810</v>
       </c>
@@ -9882,7 +9895,7 @@
       </c>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="28" t="s">
         <v>810</v>
       </c>
@@ -9904,7 +9917,7 @@
       </c>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="28" t="s">
         <v>810</v>
       </c>
@@ -9926,7 +9939,7 @@
       </c>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="28">
       <c r="A204" s="28" t="s">
         <v>810</v>
       </c>
@@ -9950,7 +9963,7 @@
       </c>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="28" t="s">
         <v>810</v>
       </c>
@@ -9972,7 +9985,7 @@
       </c>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="28" t="s">
         <v>810</v>
       </c>
@@ -9994,7 +10007,7 @@
       </c>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="28">
       <c r="A207" s="28" t="s">
         <v>810</v>
       </c>
@@ -10018,7 +10031,7 @@
       </c>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="28" t="s">
         <v>810</v>
       </c>
@@ -10040,7 +10053,7 @@
       </c>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="28" t="s">
         <v>810</v>
       </c>
@@ -10064,7 +10077,7 @@
       </c>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="28" t="s">
         <v>810</v>
       </c>
@@ -10088,7 +10101,7 @@
       </c>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="28" t="s">
         <v>810</v>
       </c>
@@ -10110,7 +10123,7 @@
       </c>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="28" t="s">
         <v>810</v>
       </c>
@@ -10132,7 +10145,7 @@
       </c>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="28" t="s">
         <v>810</v>
       </c>
@@ -10154,7 +10167,7 @@
       </c>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="28" t="s">
         <v>810</v>
       </c>
@@ -10176,7 +10189,7 @@
       </c>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="28" t="s">
         <v>810</v>
       </c>
@@ -10198,7 +10211,7 @@
       </c>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="154">
       <c r="A216" s="28" t="s">
         <v>810</v>
       </c>
@@ -10222,7 +10235,7 @@
       </c>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="28" t="s">
         <v>810</v>
       </c>
@@ -10242,7 +10255,7 @@
       </c>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="28" t="s">
         <v>810</v>
       </c>
@@ -10264,7 +10277,7 @@
       </c>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="28" t="s">
         <v>810</v>
       </c>
@@ -10286,7 +10299,7 @@
       </c>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="28" t="s">
         <v>810</v>
       </c>
@@ -10308,7 +10321,7 @@
       </c>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="28" t="s">
         <v>810</v>
       </c>
@@ -10332,7 +10345,7 @@
       </c>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="28" t="s">
         <v>810</v>
       </c>
@@ -10352,7 +10365,7 @@
       </c>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="28" t="s">
         <v>935</v>
       </c>
@@ -10384,7 +10397,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10396,13 +10413,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="93.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -10410,7 +10427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -10418,7 +10435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>951</v>
       </c>
@@ -10426,7 +10443,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -10434,7 +10451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -10442,7 +10459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>184</v>
       </c>
@@ -10458,7 +10475,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -10466,7 +10483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
@@ -10474,7 +10491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>84</v>
       </c>
@@ -10482,7 +10499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>88</v>
       </c>
@@ -10490,7 +10507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
@@ -10498,7 +10515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
@@ -10506,7 +10523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -10514,7 +10531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
@@ -10522,7 +10539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
         <v>789</v>
       </c>
@@ -10530,7 +10547,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>804</v>
       </c>
@@ -10538,7 +10555,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>920</v>
       </c>
@@ -10546,7 +10563,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>922</v>
       </c>
@@ -10554,7 +10571,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>909</v>
       </c>
@@ -10562,7 +10579,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>918</v>
       </c>
@@ -10570,7 +10587,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>910</v>
       </c>
@@ -10578,7 +10595,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>912</v>
       </c>
@@ -10586,7 +10603,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>914</v>
       </c>
@@ -10594,7 +10611,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
         <v>915</v>
       </c>
@@ -10602,7 +10619,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
@@ -10610,7 +10627,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
         <v>154</v>
       </c>
@@ -10618,7 +10635,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
         <v>162</v>
       </c>
@@ -10626,7 +10643,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
         <v>119</v>
       </c>
@@ -10634,7 +10651,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -10642,7 +10659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
         <v>82</v>
       </c>
@@ -10650,7 +10667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
         <v>86</v>
       </c>
@@ -10658,7 +10675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>454</v>
       </c>
@@ -10666,7 +10683,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>456</v>
       </c>
@@ -10674,7 +10691,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -10682,7 +10699,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
         <v>924</v>
       </c>
@@ -10690,7 +10707,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
         <v>953</v>
       </c>
@@ -10698,7 +10715,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
         <v>955</v>
       </c>
@@ -10706,7 +10723,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
         <v>935</v>
       </c>
@@ -10716,6 +10733,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10727,13 +10749,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="1" max="1" width="33.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10741,7 +10763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -10750,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>70</v>
       </c>
@@ -10759,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -10768,12 +10790,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10785,20 +10812,20 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="53.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
@@ -10830,7 +10857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="52" t="s">
         <v>949</v>
       </c>
@@ -10852,5 +10879,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>